--- a/Client/配置表/excels/InstanceBase.xlsx
+++ b/Client/配置表/excels/InstanceBase.xlsx
@@ -43,22 +43,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>trigger0-101,trigger1-102,trigger3-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雪山军营-困难</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>trigger0-104,trigger1-105,trigger3-106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger0-107,trigger1-108,trigger3-109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>雪山军营-英勇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,19 +67,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Instance0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>传送触发器</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>transferTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transfer0-Instance1,transfer1-Instance2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +93,26 @@
       </rPr>
       <t>,触发器名-场景名,触发器名-场景名</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger0-101,Trigger1-102,Trigger2-103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger0-104,Trigger1-105,Trigger2-106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger0-107,Trigger1-108,Trigger2-109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer0-Instance2,Transfer1-Instance3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
   <dimension ref="A3:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -548,13 +548,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -568,13 +568,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -588,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -605,16 +605,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -625,16 +625,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -966,18 +966,18 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="63" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1">
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/InstanceBase.xlsx
+++ b/Client/配置表/excels/InstanceBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -24,62 +24,83 @@
     <t>名称</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>场景名</t>
+  </si>
+  <si>
+    <t>怪物触发器</t>
+  </si>
+  <si>
+    <t>传送触发器</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneName</t>
+  </si>
+  <si>
+    <t>monsterTrigger</t>
+  </si>
+  <si>
+    <t>transferTrigger</t>
   </si>
   <si>
     <t>雪山军营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雪山军营-简单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance1</t>
+  </si>
+  <si>
+    <t>Trigger0-101,Trigger1-102,Trigger2-103</t>
+  </si>
+  <si>
+    <t>Transfer0-Instance2,Transfer1-Instance3</t>
   </si>
   <si>
     <t>雪山军营-困难</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger0-104,Trigger1-105,Trigger2-106</t>
   </si>
   <si>
     <t>雪山军营-英勇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物触发器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sceneName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送触发器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>transferTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger0-107,Trigger1-108,Trigger2-109</t>
+  </si>
+  <si>
+    <t>紫禁之巅</t>
+  </si>
+  <si>
+    <t>月圆之夜，紫禁之巅。一剑西来，天外飞仙！</t>
+  </si>
+  <si>
+    <t>Instance4</t>
+  </si>
+  <si>
+    <t>Trigger3-201</t>
   </si>
   <si>
     <t>触发器名-触发器配置ID,触发器名-触发器配置ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>触发器名-场景名</t>
     </r>
     <r>
@@ -87,54 +108,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,触发器名-场景名,触发器名-场景名</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger0-101,Trigger1-102,Trigger2-103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger0-104,Trigger1-105,Trigger2-106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trigger0-107,Trigger1-108,Trigger2-109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer0-Instance2,Transfer1-Instance3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,33 +137,365 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,12 +503,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,30 +758,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -502,23 +1117,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="44" style="1" customWidth="1"/>
     <col min="7" max="11" width="31" style="1" customWidth="1"/>
@@ -537,7 +1153,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,417 +1161,433 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>101</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>103</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="6:9">
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="6:9">
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="6:9">
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="6:9">
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="6:9">
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="6:9">
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="6:9">
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="6:9">
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="6:9">
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="6:9">
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="6:9">
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="6:9">
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="6:9">
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="6:9">
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="6:9">
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="6:9">
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="6:9">
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="6:12">
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="6:12">
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="6:12">
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="6:12">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="6:12">
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="6:12">
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="6:12">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="6:12" ht="17.25">
-      <c r="G40" s="3"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="6:12" ht="17.25">
-      <c r="G41" s="3"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="6:12" ht="17.25">
-      <c r="G42" s="3"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="6:12" ht="17.25">
-      <c r="G43" s="3"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="6:12" ht="17.25">
-      <c r="G44" s="3"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="6:12" ht="17.25">
-      <c r="G45" s="3"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="6:12" ht="17.25">
-      <c r="G46" s="3"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="6:12" ht="17.25">
-      <c r="G47" s="3"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="6:12">
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="7:12">
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="7:12">
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="7:12" ht="17.25">
-      <c r="G51" s="3"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="7:12">
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="7:12">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="7:12">
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="7:12">
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="7:12">
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="7:12">
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="7:12">
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="7:12">
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="7:12">
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="7:12">
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="7:12">
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="7:12">
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="7:12">
-      <c r="G64" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" ht="17.25" spans="7:12">
+      <c r="G40" s="4"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" ht="17.25" spans="7:12">
+      <c r="G41" s="4"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" ht="17.25" spans="7:12">
+      <c r="G42" s="4"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" ht="17.25" spans="7:12">
+      <c r="G43" s="4"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" ht="17.25" spans="7:12">
+      <c r="G44" s="4"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" ht="17.25" spans="7:12">
+      <c r="G45" s="4"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" ht="17.25" spans="7:12">
+      <c r="G46" s="4"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" ht="17.25" spans="7:12">
+      <c r="G47" s="4"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" ht="17.25" spans="7:12">
+      <c r="G51" s="4"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="7:7">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="7:7">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="7:7">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="7:7">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="7:7">
-      <c r="G65" s="3"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="7:7">
-      <c r="G66" s="3"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="3"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="7:7">
-      <c r="G68" s="3"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="7:7">
-      <c r="G69" s="3"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="7:7">
-      <c r="G70" s="3"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="7:7">
-      <c r="G71" s="3"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="7:7">
-      <c r="G72" s="3"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="3"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="7:7">
-      <c r="G74" s="3"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="7:7">
-      <c r="G75" s="3"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="7:7">
-      <c r="G76" s="3"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="7:7">
-      <c r="G77" s="3"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="7:7">
-      <c r="G78" s="3"/>
+      <c r="G78" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="55.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="69" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5">
+    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,40 +1595,43 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="63" customHeight="1">
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="63" customHeight="1" spans="4:5">
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/配置表/excels/InstanceBase.xlsx
+++ b/Client/配置表/excels/InstanceBase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +54,6 @@
     <t>雪山军营</t>
   </si>
   <si>
-    <t>雪山军营-简单</t>
-  </si>
-  <si>
     <t>Instance1</t>
   </si>
   <si>
@@ -66,28 +63,13 @@
     <t>Transfer0-Instance2,Transfer1-Instance3</t>
   </si>
   <si>
-    <t>雪山军营-困难</t>
-  </si>
-  <si>
     <t>Trigger0-104,Trigger1-105,Trigger2-106</t>
   </si>
   <si>
-    <t>雪山军营-英勇</t>
-  </si>
-  <si>
     <t>Trigger0-107,Trigger1-108,Trigger2-109</t>
   </si>
   <si>
-    <t>紫禁之巅</t>
-  </si>
-  <si>
-    <t>月圆之夜，紫禁之巅。一剑西来，天外飞仙！</t>
-  </si>
-  <si>
     <t>Instance4</t>
-  </si>
-  <si>
-    <t>Trigger3-201</t>
   </si>
   <si>
     <t>触发器名-触发器配置ID,触发器名-触发器配置ID</t>
@@ -114,18 +96,59 @@
       <t>,触发器名-场景名,触发器名-场景名</t>
     </r>
   </si>
+  <si>
+    <t>雪山演武场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪山军营-普通难度
+怪物拥有少量护甲和技能，通关难度简单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪山军营-困难难度
+怪物血量增加，增加霸体技能，通关较困难</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪山军营-英勇难度
+怪物血量和护甲增加，增加多段霸体技能，护甲和血量会大幅度恢复，尽量通过格挡去避开伤害，通关难度非常困难</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆之夜，紫禁之巅。一剑西来，天外飞仙！
+普通难度挑战</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆之夜，紫禁之巅。一剑西来，天外飞仙！
+困难难度挑战</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆之夜，紫禁之巅。一剑西来，天外飞仙！
+英勇难度挑战
+注意格挡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger3-201</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger3-202</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger3-203</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,350 +175,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -503,258 +202,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,59 +233,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1117,16 +530,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1153,7 +566,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,117 +606,147 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9" ht="33">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="1">
         <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="66">
       <c r="A7" s="1">
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
+      <c r="C7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="1">
         <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="6:6">
+    <row r="9" spans="1:9" ht="33">
+      <c r="A9" s="1">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="6:6">
+    <row r="10" spans="1:9" ht="49.5">
+      <c r="A10" s="1">
+        <v>106</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="1:9">
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="1:9">
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="1:9">
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="6:9">
+    <row r="14" spans="1:9">
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="1:9">
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="6:9">
+    <row r="16" spans="1:9">
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1405,118 +848,118 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="6:9">
+    <row r="33" spans="6:12">
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="6:9">
+    <row r="34" spans="6:12">
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="6:9">
+    <row r="35" spans="6:12">
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="7:7">
+    <row r="36" spans="6:12">
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="7:7">
+    <row r="37" spans="6:12">
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="7:7">
+    <row r="38" spans="6:12">
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="7:7">
+    <row r="39" spans="6:12">
       <c r="G39" s="4"/>
     </row>
-    <row r="40" ht="17.25" spans="7:12">
+    <row r="40" spans="6:12" ht="17.25">
       <c r="G40" s="4"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" ht="17.25" spans="7:12">
+    <row r="41" spans="6:12" ht="17.25">
       <c r="G41" s="4"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" ht="17.25" spans="7:12">
+    <row r="42" spans="6:12" ht="17.25">
       <c r="G42" s="4"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" ht="17.25" spans="7:12">
+    <row r="43" spans="6:12" ht="17.25">
       <c r="G43" s="4"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" ht="17.25" spans="7:12">
+    <row r="44" spans="6:12" ht="17.25">
       <c r="G44" s="4"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" ht="17.25" spans="7:12">
+    <row r="45" spans="6:12" ht="17.25">
       <c r="G45" s="4"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" ht="17.25" spans="7:12">
+    <row r="46" spans="6:12" ht="17.25">
       <c r="G46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" ht="17.25" spans="7:12">
+    <row r="47" spans="6:12" ht="17.25">
       <c r="G47" s="4"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="7:7">
+    <row r="48" spans="6:12">
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:12">
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:12">
       <c r="G50" s="4"/>
     </row>
-    <row r="51" ht="17.25" spans="7:12">
+    <row r="51" spans="7:12" ht="17.25">
       <c r="G51" s="4"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:12">
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:12">
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:12">
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:12">
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:12">
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="7:12">
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="7:12">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="7:12">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="7:12">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="7:12">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="7:12">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="7:12">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="7:12">
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="7:7">
@@ -1562,22 +1005,21 @@
       <c r="G78" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
@@ -1587,7 +1029,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,34 +1046,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="63" customHeight="1" spans="4:5">
+    <row r="3" spans="1:5" ht="63" customHeight="1">
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>